--- a/jmeter/test-result/ExcelSummary/Test-Summary.xlsx
+++ b/jmeter/test-result/ExcelSummary/Test-Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\api-test-scripts\jmeter\test-result\ExcelSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0B7EDD-1039-474F-8AB5-B440AA53CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C171D2D-ECE1-442E-8684-0326FCFC67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="744" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="21" r:id="rId1"/>
@@ -1881,14 +1881,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
               <a:t>Jersey transactions </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
               <a:t>模組平均回應時間</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3602,18 +3602,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>SpringBoot transactions </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" baseline="0">
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>模組平均回應時間</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1400">
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW" sz="1200">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -8503,9 +8503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494EEAF-4EED-4EBB-957E-12F2535BD3AE}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11282,7 +11282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116A34E-B1A1-41AF-AF09-F25F39A3677E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -11430,7 +11430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8633146-CFEC-4368-96A7-B59E00117447}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>

--- a/jmeter/test-result/ExcelSummary/Test-Summary.xlsx
+++ b/jmeter/test-result/ExcelSummary/Test-Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\api-test-scripts\jmeter\test-result\ExcelSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C171D2D-ECE1-442E-8684-0326FCFC67A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C9683-8163-46AB-8105-E54CA02AEA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="744" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3679,6 +3679,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'springboot-microservice-gateway'!$D$2:$D$6</c:f>
@@ -3733,6 +3736,163 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8605233197084642E-2"/>
+                  <c:y val="-5.1369335145043523E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:t>錯誤率 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:t>0.1%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>'springboot-microservice-gateway'!$E$2:$E$6</c:f>
@@ -3787,6 +3947,163 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4163066832941886E-2"/>
+                  <c:y val="-9.8293036438540843E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:t>錯誤率 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:t>0.05%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'springboot-microservice-gateway'!$A$2:$A$6</c:f>
@@ -3867,6 +4184,168 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7617490020245111E-5"/>
+                  <c:y val="-0.18186127799146223"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="zh-TW" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:t>錯誤率 </a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:ln>
+                          <a:noFill/>
+                        </a:ln>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                      </a:rPr>
+                      <a:t>0.05%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-98E4-49CC-8541-57E4C9CAB210}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'springboot-microservice-gateway'!$A$2:$A$6</c:f>
@@ -3922,8 +4401,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4233,6 +4713,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6563,7 +7044,125 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1150819</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135194</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="接點: 肘形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C8FA09-870D-4214-BEF8-FC737EBC8CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5532225" y="5297951"/>
+          <a:ext cx="463624" cy="242652"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1114"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86077</cdr:x>
+      <cdr:y>0.1227</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87871</cdr:x>
+      <cdr:y>0.168</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="接點: 肘形 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905AC720-29F7-4DA5-9E23-50C5A58EA9A2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipH="1">
+          <a:off x="5556788" y="432230"/>
+          <a:ext cx="152831" cy="116237"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 705"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8503,9 +9102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6494EEAF-4EED-4EBB-957E-12F2535BD3AE}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -8874,7 +9473,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="25" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="65"/>
       <c r="C10" s="49" t="s">
@@ -9221,7 +9820,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="65"/>
       <c r="C19" s="49" t="s">
@@ -9570,7 +10169,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="49" t="s">
@@ -9923,7 +10522,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="25" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="43" t="s">
@@ -10271,7 +10870,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="49" t="s">
@@ -10309,7 +10908,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="49" t="s">
@@ -10347,7 +10946,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A48" s="65"/>
       <c r="B48" s="65"/>
       <c r="C48" s="49" t="s">
@@ -10694,7 +11293,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="49" t="s">
@@ -10733,7 +11332,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A58" s="64"/>
       <c r="B58" s="64"/>
       <c r="C58" s="49" t="s">
@@ -10772,7 +11371,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A59" s="65"/>
       <c r="B59" s="65"/>
       <c r="C59" s="49" t="s">
@@ -11126,7 +11725,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A68" s="66"/>
       <c r="B68" s="66"/>
       <c r="C68" s="43" t="s">
@@ -11170,7 +11769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A69" s="66"/>
       <c r="B69" s="66"/>
       <c r="C69" s="58" t="s">
@@ -11212,7 +11811,7 @@
       </c>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" s="25" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" s="25" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
       <c r="B70" s="66"/>
       <c r="C70" s="43" t="s">
@@ -11282,8 +11881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116A34E-B1A1-41AF-AF09-F25F39A3677E}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -11430,8 +12029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8633146-CFEC-4368-96A7-B59E00117447}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
